--- a/biology/Botanique/Aconitum_variegatum/Aconitum_variegatum.xlsx
+++ b/biology/Botanique/Aconitum_variegatum/Aconitum_variegatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aconitum variegatum, l'aconit panaché, ou aconit paniculé, est une espèce de plantes herbacées vivaces du genre Aconitum et de la famille des Ranunculaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La fleur est très proche de l'aconit tue-loup, mais la plante s'en différencie par la disposition des fleurs, en panicule.
 Organes reproducteurs
@@ -558,8 +572,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Toxicité
-C'est une plante très vénéneuse contenant des alcaloïdes et glucosides dont principalement l'aconitine. Ses fleurs sont parmi les plus toxiques de la flore naturelle italienne. Les symptômes d'empoisonnement par cette plantes sont les nausées, vomissements, diarrhées, bradycardie, arythmie et finalement l'arrêt cardiaque et la mort.
+          <t>Toxicité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante très vénéneuse contenant des alcaloïdes et glucosides dont principalement l'aconitine. Ses fleurs sont parmi les plus toxiques de la flore naturelle italienne. Les symptômes d'empoisonnement par cette plantes sont les nausées, vomissements, diarrhées, bradycardie, arythmie et finalement l'arrêt cardiaque et la mort.
 </t>
         </is>
       </c>
